--- a/dataFiles/forgotPassword/ForgotPassword-Negative.xlsx
+++ b/dataFiles/forgotPassword/ForgotPassword-Negative.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>Prabha@123</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -618,7 +615,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +739,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>36</v>
@@ -789,7 +786,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>37</v>
@@ -836,7 +833,7 @@
         <v>49</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>38</v>
@@ -883,7 +880,7 @@
         <v>50</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
@@ -930,7 +927,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>35</v>
@@ -977,7 +974,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>36</v>
@@ -1024,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>37</v>
@@ -1071,7 +1068,7 @@
         <v>54</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>38</v>
@@ -1110,7 +1107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>65</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>55</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>39</v>
